--- a/src/main/resources/my-google-prep.xlsx
+++ b/src/main/resources/my-google-prep.xlsx
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +408,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -424,6 +430,9 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="17">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,7 +496,7 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -870,7 +879,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="76" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -921,82 +930,82 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="13" t="str">
         <f ca="1">UPPER(TEXT(StartDate,"aaa"))</f>
         <v>MON</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="str">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="str">
         <f ca="1">UPPER(TEXT(StartDate+1,"aaa"))</f>
         <v>TUE</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="str">
+      <c r="F2" s="16"/>
+      <c r="G2" s="17" t="str">
         <f ca="1">UPPER(TEXT(StartDate+2,"aaa"))</f>
         <v>WED</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="22" t="str">
+      <c r="H2" s="18"/>
+      <c r="I2" s="23" t="str">
         <f ca="1">UPPER(TEXT(StartDate+3,"aaa"))</f>
         <v>THU</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24" t="str">
+      <c r="J2" s="24"/>
+      <c r="K2" s="25" t="str">
         <f ca="1">UPPER(TEXT(StartDate+4,"aaa"))</f>
         <v>FRI</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26" t="str">
+      <c r="L2" s="26"/>
+      <c r="M2" s="27" t="str">
         <f ca="1">UPPER(TEXT(StartDate+5,"aaa"))</f>
         <v>SAT</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="20" t="str">
+      <c r="N2" s="28"/>
+      <c r="O2" s="21" t="str">
         <f ca="1">UPPER(TEXT(StartDate+6,"aaa"))</f>
         <v>SUN</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <f ca="1">TODAY()</f>
         <v>44781</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <f ca="1">StartDate</f>
         <v>44781</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
         <f ca="1">StartDate+1</f>
         <v>44782</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="18">
+      <c r="F3" s="11"/>
+      <c r="G3" s="19">
         <f ca="1">StartDate+2</f>
         <v>44783</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19">
+      <c r="H3" s="19"/>
+      <c r="I3" s="20">
         <f ca="1">StartDate+3</f>
         <v>44784</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="28">
+      <c r="J3" s="20"/>
+      <c r="K3" s="29">
         <f ca="1">StartDate+4</f>
         <v>44785</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29">
+      <c r="L3" s="29"/>
+      <c r="M3" s="30">
         <f ca="1">StartDate+5</f>
         <v>44786</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="11">
+      <c r="N3" s="30"/>
+      <c r="O3" s="12">
         <f ca="1">StartDate+6</f>
         <v>44787</v>
       </c>
-      <c r="P3" s="11"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
@@ -1049,88 +1058,88 @@
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30">
-        <v>1</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30">
-        <v>1</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30">
-        <v>1</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30">
-        <v>1</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30">
-        <v>1</v>
-      </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30">
-        <v>1</v>
-      </c>
-      <c r="P7" s="30">
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1138,34 +1147,34 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="30">
-        <v>1</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30">
-        <v>1</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30">
-        <v>1</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30">
-        <v>1</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30">
-        <v>1</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30">
-        <v>1</v>
-      </c>
-      <c r="P8" s="30">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1173,34 +1182,34 @@
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30">
-        <v>1</v>
-      </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30">
-        <v>1</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30">
-        <v>1</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30">
-        <v>1</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30">
-        <v>1</v>
-      </c>
-      <c r="P9" s="30">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1208,34 +1217,34 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="30">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
-        <v>1</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30">
-        <v>1</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30">
-        <v>1</v>
-      </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30">
-        <v>1</v>
-      </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30">
-        <v>1</v>
-      </c>
-      <c r="P10" s="30">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/my-google-prep.xlsx
+++ b/src/main/resources/my-google-prep.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workshop\my-learnings\ram-dsa-mad\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAMAM11\My-Garrage\personal-workshop\dsa-practise\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008971B6-62EF-479F-9070-AEAEDC18733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="15" yWindow="30" windowWidth="20460" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chore Schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Chore Schedule'!$4:$4</definedName>
     <definedName name="StartDate">'Chore Schedule'!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -137,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
@@ -433,91 +445,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="17">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="16">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="14">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="17">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="11">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="14">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="3" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Border Right" xfId="9"/>
+    <cellStyle name="Border Right" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22" hidden="1" customBuiltin="1"/>
-    <cellStyle name="Chore Column Style" xfId="7"/>
-    <cellStyle name="Chore Heading" xfId="8"/>
-    <cellStyle name="Color Day 1" xfId="17"/>
-    <cellStyle name="Color Day 2" xfId="16"/>
-    <cellStyle name="Color Day 3" xfId="15"/>
-    <cellStyle name="Color Day 4" xfId="14"/>
-    <cellStyle name="Color Day 5" xfId="13"/>
-    <cellStyle name="Color Day 6" xfId="12"/>
-    <cellStyle name="Color Day 7" xfId="11"/>
+    <cellStyle name="Chore Column Style" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Chore Heading" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Color Day 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Color Day 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Color Day 3" xfId="15" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Color Day 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Color Day 5" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Color Day 6" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Color Day 7" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Details" xfId="10"/>
+    <cellStyle name="Table Details" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -578,7 +590,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="ChoreTableStyle" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ChoreTableStyle" pivot="0" count="3">
+    <tableStyle name="ChoreTableStyle" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
@@ -601,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ChoreSchedule" displayName="ChoreSchedule" ref="B4:P10" totalsRowShown="0" headerRowCellStyle="Chore Heading">
-  <autoFilter ref="B4:P10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ChoreSchedule" displayName="ChoreSchedule" ref="B4:P10" totalsRowShown="0" headerRowCellStyle="Chore Heading">
+  <autoFilter ref="B4:P10" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -620,21 +632,21 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" name="TASK" dataCellStyle="Chore Column Style"/>
-    <tableColumn id="2" name="WHAT_x000a_Day 1" dataCellStyle="Table Details"/>
-    <tableColumn id="3" name="DONE _x000a_Day 1" dataCellStyle="Table Details"/>
-    <tableColumn id="4" name="WHAT_x000a_Day 12" dataCellStyle="Table Details"/>
-    <tableColumn id="5" name="DONE _x000a_DAY 2" dataCellStyle="Table Details"/>
-    <tableColumn id="6" name="WHAT_x000a_Day 13" dataCellStyle="Table Details"/>
-    <tableColumn id="7" name="DONE  _x000a_DAY 3" dataCellStyle="Table Details"/>
-    <tableColumn id="8" name="WHAT_x000a_Day 14" dataCellStyle="Table Details"/>
-    <tableColumn id="9" name="DONE_x000a_DAY 4" dataCellStyle="Table Details"/>
-    <tableColumn id="10" name="WHAT_x000a_Day 15" dataCellStyle="Table Details"/>
-    <tableColumn id="11" name="DONE_x000a_DAY 5" dataCellStyle="Table Details"/>
-    <tableColumn id="12" name="WHAT_x000a_Day 16" dataCellStyle="Table Details"/>
-    <tableColumn id="13" name="DONE_x000a_DAY 6" dataCellStyle="Table Details"/>
-    <tableColumn id="14" name="WHAT_x000a_Day 17" dataCellStyle="Table Details"/>
-    <tableColumn id="15" name="DONE _x000a_DAY 7" dataCellStyle="Table Details"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TASK" dataCellStyle="Chore Column Style"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="WHAT_x000a_Day 1" dataCellStyle="Table Details"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DONE _x000a_Day 1" dataCellStyle="Table Details"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="WHAT_x000a_Day 12" dataCellStyle="Table Details"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DONE _x000a_DAY 2" dataCellStyle="Table Details"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="WHAT_x000a_Day 13" dataCellStyle="Table Details"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE  _x000a_DAY 3" dataCellStyle="Table Details"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="WHAT_x000a_Day 14" dataCellStyle="Table Details"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="DONE_x000a_DAY 4" dataCellStyle="Table Details"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="WHAT_x000a_Day 15" dataCellStyle="Table Details"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="DONE_x000a_DAY 5" dataCellStyle="Table Details"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="WHAT_x000a_Day 16" dataCellStyle="Table Details"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DONE_x000a_DAY 6" dataCellStyle="Table Details"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="WHAT_x000a_Day 17" dataCellStyle="Table Details"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="DONE _x000a_DAY 7" dataCellStyle="Table Details"/>
   </tableColumns>
   <tableStyleInfo name="ChoreTableStyle" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="1"/>
   <extLst>
@@ -871,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -879,31 +891,31 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="76" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>30</v>
@@ -923,91 +935,91 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="14" t="str">
         <f ca="1">UPPER(TEXT(StartDate,"aaa"))</f>
+        <v>TUE</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16" t="str">
+        <f ca="1">UPPER(TEXT(StartDate+1,"aaa"))</f>
+        <v>WED</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="str">
+        <f ca="1">UPPER(TEXT(StartDate+2,"aaa"))</f>
+        <v>THU</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="24" t="str">
+        <f ca="1">UPPER(TEXT(StartDate+3,"aaa"))</f>
+        <v>FRI</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26" t="str">
+        <f ca="1">UPPER(TEXT(StartDate+4,"aaa"))</f>
+        <v>SAT</v>
+      </c>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28" t="str">
+        <f ca="1">UPPER(TEXT(StartDate+5,"aaa"))</f>
+        <v>SUN</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="22" t="str">
+        <f ca="1">UPPER(TEXT(StartDate+6,"aaa"))</f>
         <v>MON</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="str">
-        <f ca="1">UPPER(TEXT(StartDate+1,"aaa"))</f>
-        <v>TUE</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17" t="str">
-        <f ca="1">UPPER(TEXT(StartDate+2,"aaa"))</f>
-        <v>WED</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="23" t="str">
-        <f ca="1">UPPER(TEXT(StartDate+3,"aaa"))</f>
-        <v>THU</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25" t="str">
-        <f ca="1">UPPER(TEXT(StartDate+4,"aaa"))</f>
-        <v>FRI</v>
-      </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27" t="str">
-        <f ca="1">UPPER(TEXT(StartDate+5,"aaa"))</f>
-        <v>SAT</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="21" t="str">
-        <f ca="1">UPPER(TEXT(StartDate+6,"aaa"))</f>
-        <v>SUN</v>
-      </c>
-      <c r="P2" s="22"/>
+      <c r="P2" s="23"/>
     </row>
-    <row r="3" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <f ca="1">TODAY()</f>
-        <v>44781</v>
-      </c>
-      <c r="C3" s="10">
+        <v>44782</v>
+      </c>
+      <c r="C3" s="11">
         <f ca="1">StartDate</f>
-        <v>44781</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
+        <v>44782</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12">
         <f ca="1">StartDate+1</f>
-        <v>44782</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="19">
+        <v>44783</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="20">
         <f ca="1">StartDate+2</f>
-        <v>44783</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20">
+        <v>44784</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21">
         <f ca="1">StartDate+3</f>
-        <v>44784</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="29">
+        <v>44785</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="30">
         <f ca="1">StartDate+4</f>
-        <v>44785</v>
-      </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30">
+        <v>44786</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31">
         <f ca="1">StartDate+5</f>
-        <v>44786</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="12">
+        <v>44787</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="13">
         <f ca="1">StartDate+6</f>
-        <v>44787</v>
-      </c>
-      <c r="P3" s="12"/>
+        <v>44788</v>
+      </c>
+      <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1093,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1108,18 +1120,18 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="31">
-        <v>1</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="9">
         <v>1</v>
       </c>
@@ -1143,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1266,11 +1278,11 @@
     <mergeCell ref="M3:N3"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter weekly chores in the Chore Schedule table. Enter the week date for the chore schedule in B3. The table contains a column for the name to assign each chore for any given day of the week and a column to mark the chore done when it is completed" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the starting date of the week for the Chore Schedule in this cell" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter each chore task in this column " sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the person assigned to each chore task for Day 1 in this column" sqref="C4 E4 G4 I4 K4 M4 O4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mark this column when a chore task is completed in this column" sqref="D4 P4 N4 L4 J4 H4 F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter weekly chores in the Chore Schedule table. Enter the week date for the chore schedule in B3. The table contains a column for the name to assign each chore for any given day of the week and a column to mark the chore done when it is completed" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the starting date of the week for the Chore Schedule in this cell" sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter each chore task in this column " sqref="B4" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the person assigned to each chore task for Day 1 in this column" sqref="C4 E4 G4 I4 K4 M4 O4" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mark this column when a chore task is completed in this column" sqref="D4 P4 N4 L4 J4 H4 F4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1285,14 +1297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J18" sqref="C18:J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/my-google-prep.xlsx
+++ b/src/main/resources/my-google-prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRAMAM11\My-Garrage\personal-workshop\dsa-practise\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008971B6-62EF-479F-9070-AEAEDC18733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8313ACD4-7B24-49AD-BB96-B239E902D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="30" windowWidth="20460" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,7 +891,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="76" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1074,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
